--- a/РАБОЧИЙ СТОЛ/сроки СЫРЫ 20,05,25/Сыр останкино (Мелитополь).xlsx
+++ b/РАБОЧИЙ СТОЛ/сроки СЫРЫ 20,05,25/Сыр останкино (Мелитополь).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\сроки СЫРЫ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\сроки СЫРЫ 20,05,25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA45FFCD-018A-4B4D-8E34-62471666A5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A141D7-81CB-4917-BC7B-45618517FB90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,13 +458,13 @@
     <xf numFmtId="2" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -841,11 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -870,11 +869,11 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45797</v>
+        <v>45803</v>
       </c>
       <c r="H1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45797</v>
+        <v>45803</v>
       </c>
       <c r="I1" s="4"/>
     </row>
@@ -906,16 +905,16 @@
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="33"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="34" t="s">
         <v>47</v>
       </c>
       <c r="N2" s="34"/>
     </row>
-    <row r="3" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>123</v>
       </c>
@@ -936,17 +935,17 @@
       </c>
       <c r="G3" s="10">
         <f t="shared" ref="G3" ca="1" si="0">IFERROR((F3-$G$1)/(F3-E3)*100,"")</f>
-        <v>35.555555555555557</v>
+        <v>32.222222222222221</v>
       </c>
       <c r="H3" s="10">
         <f t="shared" ref="H3" ca="1" si="1">F3-$H$1</f>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>124</v>
       </c>
@@ -967,17 +966,17 @@
       </c>
       <c r="G4" s="10">
         <f t="shared" ref="G4:G32" ca="1" si="2">IFERROR((F4-$G$1)/(F4-E4)*100,"")</f>
-        <v>77.407407407407405</v>
+        <v>75.18518518518519</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" ref="H4:H32" ca="1" si="3">F4-$H$1</f>
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>125</v>
       </c>
@@ -998,17 +997,17 @@
       </c>
       <c r="G5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>77.777777777777786</v>
+        <v>75.555555555555557</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>126</v>
       </c>
@@ -1029,17 +1028,17 @@
       </c>
       <c r="G6" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>35.555555555555557</v>
+        <v>28.888888888888886</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>252</v>
       </c>
@@ -1060,17 +1059,17 @@
       </c>
       <c r="G7" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>253</v>
       </c>
@@ -1091,17 +1090,17 @@
       </c>
       <c r="G8" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>77.037037037037038</v>
+        <v>74.81481481481481</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>322</v>
       </c>
@@ -1122,11 +1121,11 @@
       </c>
       <c r="G9" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44.370860927152314</v>
+        <v>40.397350993377486</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>11</v>
@@ -1153,11 +1152,11 @@
       </c>
       <c r="G10" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>35.555555555555557</v>
+        <v>28.888888888888886</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>11</v>
@@ -1168,14 +1167,14 @@
       <c r="L10" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="M10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="N10" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>327</v>
       </c>
@@ -1196,17 +1195,17 @@
       </c>
       <c r="G11" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>71.333333333333343</v>
+        <v>67.333333333333329</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>328</v>
       </c>
@@ -1227,17 +1226,17 @@
       </c>
       <c r="G12" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>37.333333333333336</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>329</v>
       </c>
@@ -1258,17 +1257,17 @@
       </c>
       <c r="G13" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>58.389261744966447</v>
+        <v>54.36241610738255</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>330</v>
       </c>
@@ -1289,11 +1288,11 @@
       </c>
       <c r="G14" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>57.999999999999993</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>11</v>
@@ -1320,11 +1319,11 @@
       </c>
       <c r="G15" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H15" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>11</v>
@@ -1335,14 +1334,14 @@
       <c r="L15" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="35" t="s">
+      <c r="M15" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="35" t="s">
+      <c r="N15" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>332</v>
       </c>
@@ -1363,17 +1362,17 @@
       </c>
       <c r="G16" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>71.333333333333343</v>
+        <v>67.333333333333329</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>333</v>
       </c>
@@ -1394,17 +1393,17 @@
       </c>
       <c r="G17" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>57.999999999999993</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>334</v>
       </c>
@@ -1425,17 +1424,17 @@
       </c>
       <c r="G18" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>37.414965986394563</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>335</v>
       </c>
@@ -1456,17 +1455,17 @@
       </c>
       <c r="G19" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>71.333333333333343</v>
+        <v>67.333333333333329</v>
       </c>
       <c r="H19" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>336</v>
       </c>
@@ -1487,17 +1486,17 @@
       </c>
       <c r="G20" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>79.629629629629633</v>
+        <v>77.407407407407405</v>
       </c>
       <c r="H20" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>346</v>
       </c>
@@ -1518,17 +1517,17 @@
       </c>
       <c r="G21" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>67.5</v>
+        <v>62.5</v>
       </c>
       <c r="H21" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>347</v>
       </c>
@@ -1549,17 +1548,17 @@
       </c>
       <c r="G22" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>50.833333333333329</v>
+        <v>45.833333333333329</v>
       </c>
       <c r="H22" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>349</v>
       </c>
@@ -1580,17 +1579,17 @@
       </c>
       <c r="G23" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>38.333333333333336</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="H23" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>350</v>
       </c>
@@ -1611,17 +1610,17 @@
       </c>
       <c r="G24" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>43.333333333333336</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="H24" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>351</v>
       </c>
@@ -1642,17 +1641,17 @@
       </c>
       <c r="G25" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>39.344262295081968</v>
+        <v>29.508196721311474</v>
       </c>
       <c r="H25" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>352</v>
       </c>
@@ -1673,17 +1672,17 @@
       </c>
       <c r="G26" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>66.666666666666657</v>
+        <v>61.666666666666671</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>354</v>
       </c>
@@ -1704,17 +1703,17 @@
       </c>
       <c r="G27" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>358</v>
       </c>
@@ -1735,17 +1734,17 @@
       </c>
       <c r="G28" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>62.5</v>
+        <v>57.499999999999993</v>
       </c>
       <c r="H28" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>359</v>
       </c>
@@ -1766,17 +1765,17 @@
       </c>
       <c r="G29" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>36.885245901639344</v>
+        <v>31.967213114754102</v>
       </c>
       <c r="H29" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>360</v>
       </c>
@@ -1797,17 +1796,17 @@
       </c>
       <c r="G30" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>56.666666666666664</v>
+        <v>51.666666666666671</v>
       </c>
       <c r="H30" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>361</v>
       </c>
@@ -1828,11 +1827,11 @@
       </c>
       <c r="G31" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>55.172413793103445</v>
+        <v>50</v>
       </c>
       <c r="H31" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>11</v>
@@ -1857,11 +1856,11 @@
       </c>
       <c r="G32" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>11.917098445595855</v>
+        <v>8.8082901554404138</v>
       </c>
       <c r="H32" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>11</v>
@@ -1872,19 +1871,13 @@
       <c r="L32" t="s">
         <v>42</v>
       </c>
-      <c r="M32" s="35" t="s">
+      <c r="M32" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="N32" s="35"/>
+      <c r="N32" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I32" xr:uid="{28728C2C-6891-4A0E-93A9-6A21623A8B92}">
-    <filterColumn colId="5">
-      <filters>
-        <dateGroupItem year="2025" month="6" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:I32" xr:uid="{28728C2C-6891-4A0E-93A9-6A21623A8B92}"/>
   <mergeCells count="2">
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="K2:L2"/>
